--- a/app/Группы/BillsSaldoGroup.xlsx
+++ b/app/Группы/BillsSaldoGroup.xlsx
@@ -57,9 +57,6 @@
     <t>${RD.saldoValues.sal_payments}</t>
   </si>
   <si>
-    <t>${RD.saldoValues.sal_penalties_cur}</t>
-  </si>
-  <si>
     <t>${RD.saldoValues.sal_full_calc}</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>${RD.grp_name} по адресу ${RD.grp_adress} за период:  ${RD.dateBeg} - ${RD.dateEnd}</t>
+  </si>
+  <si>
+    <t>${RD.saldoValues.sal_penalties_pay}</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,12 +480,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -572,28 +572,28 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
